--- a/data/hotels_by_city/Houston/Houston_shard_290.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_290.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d12232120-Reviews-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hilton-Garden-Inn-Houston-Baytown.h17860656.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,810 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r601089168-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>12232120</t>
+  </si>
+  <si>
+    <t>601089168</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>Stayed here the weekend with family and when I say it was magnificent it was..the front desk young lady was dress professional and handled things professionally. The entrance so clean and beautiful..when we opened room door room was so nice and clean ..just beautiful elevators clean..pool clean..everything was clean..housekeeping good job..and I saved the best for last bed was so AWESOME..COMFORTABLE..i slept so good..Thank you Hilton garden inn and thank you to where it starts the manager good jobMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>Stayed here the weekend with family and when I say it was magnificent it was..the front desk young lady was dress professional and handled things professionally. The entrance so clean and beautiful..when we opened room door room was so nice and clean ..just beautiful elevators clean..pool clean..everything was clean..housekeeping good job..and I saved the best for last bed was so AWESOME..COMFORTABLE..i slept so good..Thank you Hilton garden inn and thank you to where it starts the manager good jobMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r600602732-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>600602732</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Great stay here while traveling through</t>
+  </si>
+  <si>
+    <t>Stopped here on a longer trip and this was an excellent stay. The room was comfortable, hotel clean and modern looking, and staff friendly and exceptional. Wish every stay was this positive. It is just off the highway and easy to get to, but tucked a little behind a couple of other places.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stopped here on a longer trip and this was an excellent stay. The room was comfortable, hotel clean and modern looking, and staff friendly and exceptional. Wish every stay was this positive. It is just off the highway and easy to get to, but tucked a little behind a couple of other places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r599670915-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>599670915</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Fun get away</t>
+  </si>
+  <si>
+    <t>Staff here is Great, Veronica the front desk lady made us feel at home and like she was so happy to have us there :) Bed was comfortable, location was good and we will definitely stay here again if we are in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Staff here is Great, Veronica the front desk lady made us feel at home and like she was so happy to have us there :) Bed was comfortable, location was good and we will definitely stay here again if we are in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r584351061-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>584351061</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>The rooms were clean, comfortable, and a great value for the price. The staff were helpful, courteous,  and friendly. Finding the entrance was a little difficult,  but that was ok as it took us off the very busy main street.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>The rooms were clean, comfortable, and a great value for the price. The staff were helpful, courteous,  and friendly. Finding the entrance was a little difficult,  but that was ok as it took us off the very busy main street.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r584197095-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>584197095</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>what a lovely Inn</t>
+  </si>
+  <si>
+    <t>This Inn is very clean and the staff is very helpful and nice. We had a great stay. The beds are firm and comfortable. The $5. cost for breakfast is really worth it! Will be staying again as soon as we can. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded June 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2018</t>
+  </si>
+  <si>
+    <t>This Inn is very clean and the staff is very helpful and nice. We had a great stay. The beds are firm and comfortable. The $5. cost for breakfast is really worth it! Will be staying again as soon as we can. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r584000286-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>584000286</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Quiet, clean, kindness</t>
+  </si>
+  <si>
+    <t>After a long hot day, check in was quick! Room is clean and nice. Room is quiet and relaxing. Staff was very kind and moved my room to the top floor. Good amenities! Lobby has many food offerings in the market. The restaurant has really good food! I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>After a long hot day, check in was quick! Room is clean and nice. Room is quiet and relaxing. Staff was very kind and moved my room to the top floor. Good amenities! Lobby has many food offerings in the market. The restaurant has really good food! I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r579099417-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>579099417</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Nice, new, and clean</t>
+  </si>
+  <si>
+    <t>Brand new and clean lobby and room. Helpful staff.  Didn't try the food.  We'll be back when in the area.  Not sure what else to say bc the review requires 200 characters so thank you Garden Inn Baytown.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2018</t>
+  </si>
+  <si>
+    <t>Brand new and clean lobby and room. Helpful staff.  Didn't try the food.  We'll be back when in the area.  Not sure what else to say bc the review requires 200 characters so thank you Garden Inn Baytown.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r579034133-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>579034133</t>
+  </si>
+  <si>
+    <t>What I needed after a long flight..</t>
+  </si>
+  <si>
+    <t>This hotel is what I needed after a 4.5 hour flight.  Hotel location is great. Easy to get to from freeway and plenty of restaurants within a  mile.   Property itself was very clean and modern and staff was great. It has a bar and a kitchen if you don't want to leave.   My room was clean, furniture was new, and bed was super comfortable. Bottom line is I would stay here again if I'm out this way again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is what I needed after a 4.5 hour flight.  Hotel location is great. Easy to get to from freeway and plenty of restaurants within a  mile.   Property itself was very clean and modern and staff was great. It has a bar and a kitchen if you don't want to leave.   My room was clean, furniture was new, and bed was super comfortable. Bottom line is I would stay here again if I'm out this way again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r577251641-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>577251641</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Not a bad Hotel</t>
+  </si>
+  <si>
+    <t>Hotel lobby seems to be clean. The room was quite nice, clean as well. Very disappointed in the fact that it does not come with a complimentary breakfast for the price we paid. We did not use any amenities it came with.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Hotel lobby seems to be clean. The room was quite nice, clean as well. Very disappointed in the fact that it does not come with a complimentary breakfast for the price we paid. We did not use any amenities it came with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r572308575-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>572308575</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>Dorothy’s place!</t>
+  </si>
+  <si>
+    <t>The hotel is great, the staff is very nice, the location is great, but the gem of the place is Dorothy in the kitchen! Perfect in every way! Barely went out to eat in the 2 weeks I was there. Her food is fantastic! Burger, salmon, stir fry... everything was fantastic! Don’t miss out! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded April 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is great, the staff is very nice, the location is great, but the gem of the place is Dorothy in the kitchen! Perfect in every way! Barely went out to eat in the 2 weeks I was there. Her food is fantastic! Burger, salmon, stir fry... everything was fantastic! Don’t miss out! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r572123052-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>572123052</t>
+  </si>
+  <si>
+    <t>Best of Baytown!</t>
+  </si>
+  <si>
+    <t>This hotel is amazing! Mr. Reggy and his staff are wonderful! From the housekeeping to the ladies at the restaurant! We have stayed at other hotels here in Baytown but this was by far is the BEST! Rooms are clean! The common areas are super clean! Worth every single $!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is amazing! Mr. Reggy and his staff are wonderful! From the housekeeping to the ladies at the restaurant! We have stayed at other hotels here in Baytown but this was by far is the BEST! Rooms are clean! The common areas are super clean! Worth every single $!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r570831074-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>570831074</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>5 Star Experience</t>
+  </si>
+  <si>
+    <t>...I had the opportunity to stay at this location and must say that it surpassed all expectations by leaps and bounds. Anytime I returned to the property, I would always be eagerly greeted by Reggie or one of his many gracious team members (Kelly, Veronica, Carolina, and Jim) and those amazing fresh baked cookies. Sometimes if they ran out before I returned from a late day, they would bake another batch just so I could enjoy a few. 
+The hospitality doesn’t stop there, but extends exponentially in all directions. Regardless if it was coming down for breakfast, dinner, or a drink at the grill; Vivian, Dorothy, Sarah, Destiny, and Allan would all enthusiastically welcome me back by name and with many smiles. Vivian and Destiny each would remember what I ordered the previous interaction and without missing a beat, ask if that was something I wanted to try again. Dorothy and Sarah would always prepare fantastic meals even with my special requests due to dietary restrictions. If i wanted to sit outside in the patio by the fire place, Allan would happily ignite it and kindly set up a chair close by so as I can be left to enjoy my evening libation. 
+I’ve stayed at many hotels  and must say indubitably that Reggie and his excellent team have made my stay one of the most enjoyable and everlasting memorable moments with not only their professionalism, but with their goal... +I had the opportunity to stay at this location and must say that it surpassed all expectations by leaps and bounds. Anytime I returned to the property, I would always be eagerly greeted by Reggie or one of his many gracious team members (Kelly, Veronica, Carolina, and Jim) and those amazing fresh baked cookies. Sometimes if they ran out before I returned from a late day, they would bake another batch just so I could enjoy a few. The hospitality doesn’t stop there, but extends exponentially in all directions. Regardless if it was coming down for breakfast, dinner, or a drink at the grill; Vivian, Dorothy, Sarah, Destiny, and Allan would all enthusiastically welcome me back by name and with many smiles. Vivian and Destiny each would remember what I ordered the previous interaction and without missing a beat, ask if that was something I wanted to try again. Dorothy and Sarah would always prepare fantastic meals even with my special requests due to dietary restrictions. If i wanted to sit outside in the patio by the fire place, Allan would happily ignite it and kindly set up a chair close by so as I can be left to enjoy my evening libation. I’ve stayed at many hotels  and must say indubitably that Reggie and his excellent team have made my stay one of the most enjoyable and everlasting memorable moments with not only their professionalism, but with their goal of making you feel like you are at home. Bravo, you all did!They truly are a paragon of what the real hotel experience should be - feeling like you aren’t at one at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>...I had the opportunity to stay at this location and must say that it surpassed all expectations by leaps and bounds. Anytime I returned to the property, I would always be eagerly greeted by Reggie or one of his many gracious team members (Kelly, Veronica, Carolina, and Jim) and those amazing fresh baked cookies. Sometimes if they ran out before I returned from a late day, they would bake another batch just so I could enjoy a few. 
+The hospitality doesn’t stop there, but extends exponentially in all directions. Regardless if it was coming down for breakfast, dinner, or a drink at the grill; Vivian, Dorothy, Sarah, Destiny, and Allan would all enthusiastically welcome me back by name and with many smiles. Vivian and Destiny each would remember what I ordered the previous interaction and without missing a beat, ask if that was something I wanted to try again. Dorothy and Sarah would always prepare fantastic meals even with my special requests due to dietary restrictions. If i wanted to sit outside in the patio by the fire place, Allan would happily ignite it and kindly set up a chair close by so as I can be left to enjoy my evening libation. 
+I’ve stayed at many hotels  and must say indubitably that Reggie and his excellent team have made my stay one of the most enjoyable and everlasting memorable moments with not only their professionalism, but with their goal... +I had the opportunity to stay at this location and must say that it surpassed all expectations by leaps and bounds. Anytime I returned to the property, I would always be eagerly greeted by Reggie or one of his many gracious team members (Kelly, Veronica, Carolina, and Jim) and those amazing fresh baked cookies. Sometimes if they ran out before I returned from a late day, they would bake another batch just so I could enjoy a few. The hospitality doesn’t stop there, but extends exponentially in all directions. Regardless if it was coming down for breakfast, dinner, or a drink at the grill; Vivian, Dorothy, Sarah, Destiny, and Allan would all enthusiastically welcome me back by name and with many smiles. Vivian and Destiny each would remember what I ordered the previous interaction and without missing a beat, ask if that was something I wanted to try again. Dorothy and Sarah would always prepare fantastic meals even with my special requests due to dietary restrictions. If i wanted to sit outside in the patio by the fire place, Allan would happily ignite it and kindly set up a chair close by so as I can be left to enjoy my evening libation. I’ve stayed at many hotels  and must say indubitably that Reggie and his excellent team have made my stay one of the most enjoyable and everlasting memorable moments with not only their professionalism, but with their goal of making you feel like you are at home. Bravo, you all did!They truly are a paragon of what the real hotel experience should be - feeling like you aren’t at one at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r568870781-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>568870781</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>The perfect stay!</t>
+  </si>
+  <si>
+    <t>I have been in this hotel for over 50 days on business, the staff has made us feel like part of the family. There is always a friendly greeting and welcomed conversation no matter what time of day. The food and the bar are extremely accommodating. The rooms are very comfortable and always very clean.My whole experience has been tremendously satisfying while away from home.Thanks to the entire staff; Reggie, Jim, Alan, Vivian, Dorothy (always get to know the chef) and the rest, to many to name.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>I have been in this hotel for over 50 days on business, the staff has made us feel like part of the family. There is always a friendly greeting and welcomed conversation no matter what time of day. The food and the bar are extremely accommodating. The rooms are very comfortable and always very clean.My whole experience has been tremendously satisfying while away from home.Thanks to the entire staff; Reggie, Jim, Alan, Vivian, Dorothy (always get to know the chef) and the rest, to many to name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r567110640-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>567110640</t>
+  </si>
+  <si>
+    <t>03/17/2018</t>
+  </si>
+  <si>
+    <t>Very modern &amp; clean</t>
+  </si>
+  <si>
+    <t>There seem to be many brand new hotels in the area, and this is one of them.  The lobby area and bedroom were very modern and well decorated.  The ladies at the front desk &amp; restaurant/bar area were very outgoing and friendly.  Two complaints that I would get fixed next time (we only stayed 1 night) -- pillows were way to big/firm and the window AC unit was too noisy to sleep through. Some Hilton Garden Inn hotels provide free breakfast, this one does not -- so factor that into the cost if you plan to eat breakfast at the hotel.Other than that, it was a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>There seem to be many brand new hotels in the area, and this is one of them.  The lobby area and bedroom were very modern and well decorated.  The ladies at the front desk &amp; restaurant/bar area were very outgoing and friendly.  Two complaints that I would get fixed next time (we only stayed 1 night) -- pillows were way to big/firm and the window AC unit was too noisy to sleep through. Some Hilton Garden Inn hotels provide free breakfast, this one does not -- so factor that into the cost if you plan to eat breakfast at the hotel.Other than that, it was a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r567071094-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>567071094</t>
+  </si>
+  <si>
+    <t>Long  Time Stay.</t>
+  </si>
+  <si>
+    <t>In stayed in the Hilton Garden Inn in The  Woodlands and found very good. My work involves travelling around a lot. When i came to Baytown for my company i tried several hotels before the Hilton Garden Inn but they were fully booked. I decided to stay initially for 1 week and move to another hotel but the people at the hotel were very professional and friendly i decided to extend my stay. The rooms are kept very clean and they are spacious. At  the front desk the staff  are  always very polite and helpful.  Breakfast is a buffet style and is very good even the meals in the evening are good value for the price and the staff are very friendly. There is a bar in the hotel which after a long day at work is nice to come back to. The bar staff are very good they remember you and the type of drink you prefer. There are bar snacks available as well as the full menu. In general i would say this is one of the best hotels from around the world i have stayed in. My compliments to the management staff and all the staff for making my stay here very good. Come and see for yourselves.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>In stayed in the Hilton Garden Inn in The  Woodlands and found very good. My work involves travelling around a lot. When i came to Baytown for my company i tried several hotels before the Hilton Garden Inn but they were fully booked. I decided to stay initially for 1 week and move to another hotel but the people at the hotel were very professional and friendly i decided to extend my stay. The rooms are kept very clean and they are spacious. At  the front desk the staff  are  always very polite and helpful.  Breakfast is a buffet style and is very good even the meals in the evening are good value for the price and the staff are very friendly. There is a bar in the hotel which after a long day at work is nice to come back to. The bar staff are very good they remember you and the type of drink you prefer. There are bar snacks available as well as the full menu. In general i would say this is one of the best hotels from around the world i have stayed in. My compliments to the management staff and all the staff for making my stay here very good. Come and see for yourselves.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r564985351-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>564985351</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>Great clean place with good food. Way above anything in Baytown, Texas! Fireplace, great kitchen, clean rooms, speak to Kelly at the front desk to get your reservation cleared up. Real nice place. Lots of come Broderie in the restaurant bar every night. Good parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Great clean place with good food. Way above anything in Baytown, Texas! Fireplace, great kitchen, clean rooms, speak to Kelly at the front desk to get your reservation cleared up. Real nice place. Lots of come Broderie in the restaurant bar every night. Good parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r563124000-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>563124000</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Best hotel and staff within the Hilton brand, hands down!!!</t>
+  </si>
+  <si>
+    <t>I have been a diamond elite member for years and have stayed at Hilton brand hotels and resorts all over the world and I can honestly stay that this location has the finest people and accommodations, quality that I have ever experienced.  Not only is the hotel spotless and completely modern the staff is what really makes the difference for me.  It starts with the upper management.  Regi the GM is a exceptional person and manager that has always greeted me with a smile and has taken care of my needs with the utmost priority, top notch!!!  Megan and Vivian who work the restaurant and bar are a real treat to enteract with, I highly recommend the cowboy ribeye.  I could mention all the staff by name, but I will just say that this property has the best of the best.  I’d go way out of my way to stay here while conduction business in Houston any day.  Do yourself a favor and visit this hotel, you will be treated like a king/queen, cheers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>I have been a diamond elite member for years and have stayed at Hilton brand hotels and resorts all over the world and I can honestly stay that this location has the finest people and accommodations, quality that I have ever experienced.  Not only is the hotel spotless and completely modern the staff is what really makes the difference for me.  It starts with the upper management.  Regi the GM is a exceptional person and manager that has always greeted me with a smile and has taken care of my needs with the utmost priority, top notch!!!  Megan and Vivian who work the restaurant and bar are a real treat to enteract with, I highly recommend the cowboy ribeye.  I could mention all the staff by name, but I will just say that this property has the best of the best.  I’d go way out of my way to stay here while conduction business in Houston any day.  Do yourself a favor and visit this hotel, you will be treated like a king/queen, cheers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r561544227-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>561544227</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>New and very nice!</t>
+  </si>
+  <si>
+    <t>The entire hotel was very clean, rooms, facility, all of the grounds were nice.  The bed and room were very comfortable, the fitness center was very well set up.  I will return when I’m in the area.  Thanks!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>The entire hotel was very clean, rooms, facility, all of the grounds were nice.  The bed and room were very comfortable, the fitness center was very well set up.  I will return when I’m in the area.  Thanks!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r556132814-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>556132814</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Pleasant surprise</t>
+  </si>
+  <si>
+    <t>The roads and bridges to Galveston and Houston were closed due to a terrible ice storm.  We got the last room in the hotel and needed to stay two nights before we could continue to Austin.  They have a restaurant with a small but good dinner menu and a bar in the lobby, so we didn't have to leave the hotel till we left.  The breakfast was a sit down menu style breakfast and quite good.  The waitresses were excellent and friendly.  The rooms were quiet and clean.  Just what we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>The roads and bridges to Galveston and Houston were closed due to a terrible ice storm.  We got the last room in the hotel and needed to stay two nights before we could continue to Austin.  They have a restaurant with a small but good dinner menu and a bar in the lobby, so we didn't have to leave the hotel till we left.  The breakfast was a sit down menu style breakfast and quite good.  The waitresses were excellent and friendly.  The rooms were quiet and clean.  Just what we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r553005421-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>553005421</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Best stay.. period!</t>
+  </si>
+  <si>
+    <t>This location was great. I was in town for business and needed a place right off the interstate. I am very picky with where i stay and my experience there. Being a hilton member i know i will always have a great stay anywhere i go and everytime i go. Being away from home is hard, but having employees that treat you like makes it that much better! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>This location was great. I was in town for business and needed a place right off the interstate. I am very picky with where i stay and my experience there. Being a hilton member i know i will always have a great stay anywhere i go and everytime i go. Being away from home is hard, but having employees that treat you like makes it that much better! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r551651501-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>551651501</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Don’t stay here, too many hidden charges and staffed by thieves</t>
+  </si>
+  <si>
+    <t>Staffed by thieves and liars, made up claims against clients, multiple hidden charges, and if you question or complain, ignored, we’ve stayed in our last Hilton over this, and will let everyone we know to avoid them, nothing but thieves and liarsMoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Staffed by thieves and liars, made up claims against clients, multiple hidden charges, and if you question or complain, ignored, we’ve stayed in our last Hilton over this, and will let everyone we know to avoid them, nothing but thieves and liarsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r548224793-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>548224793</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>Best place to stay in Baytown</t>
+  </si>
+  <si>
+    <t>Brand spanking new, delightful staff, modern, high quality construction, decent beds. No free breakfast, but in house restaurant with quality fair. Free hot coffee that is good (and I am picky) with half and half. We will return to this place. We have stayed at two other properties of decent brand and they do not come close. Paid a bit more, but I am worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Brand spanking new, delightful staff, modern, high quality construction, decent beds. No free breakfast, but in house restaurant with quality fair. Free hot coffee that is good (and I am picky) with half and half. We will return to this place. We have stayed at two other properties of decent brand and they do not come close. Paid a bit more, but I am worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r548085299-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>548085299</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent Location</t>
+  </si>
+  <si>
+    <t>Close proximity to outside resturants, stores and highway. Very clean and roomy rooms. The gym room is perfect size. The pool is excellent, plus has a separate outside sitting area for night enjoyment.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Close proximity to outside resturants, stores and highway. Very clean and roomy rooms. The gym room is perfect size. The pool is excellent, plus has a separate outside sitting area for night enjoyment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r547946744-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>547946744</t>
+  </si>
+  <si>
+    <t>12/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Incredible rooms.  Kuerig , fridge, microwave!   The bed and pillows were very comfortable.  Check in was easy and fast.  The laptop table was very nice. Very easy access on the internet. The bathroom was very clean MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Incredible rooms.  Kuerig , fridge, microwave!   The bed and pillows were very comfortable.  Check in was easy and fast.  The laptop table was very nice. Very easy access on the internet. The bathroom was very clean More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r546306194-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>546306194</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>New Hotel that I recommend</t>
+  </si>
+  <si>
+    <t>I would return and stay at this new hotel with the friendly staff. I strongly recommend you consider this hotel as it has easy access to Interstate 10. Plenty of restaurants around the area or dine in at the hotel. I was the first guest to officially check in at the grand opening and stayed over 95 days. Nothing like a brand new hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>I would return and stay at this new hotel with the friendly staff. I strongly recommend you consider this hotel as it has easy access to Interstate 10. Plenty of restaurants around the area or dine in at the hotel. I was the first guest to officially check in at the grand opening and stayed over 95 days. Nothing like a brand new hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r546275682-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>546275682</t>
+  </si>
+  <si>
+    <t>Excellent addition to Baytown</t>
+  </si>
+  <si>
+    <t>Excellent addition to Baytown This is certainly the best hotel in town, I hope they keep it fresh. It’s very spacious, excellent staff, good breakfast (need to add a few more items in the selection), water should be in the room and given in a bag upon checkin.MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent addition to Baytown This is certainly the best hotel in town, I hope they keep it fresh. It’s very spacious, excellent staff, good breakfast (need to add a few more items in the selection), water should be in the room and given in a bag upon checkin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r545888246-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>545888246</t>
+  </si>
+  <si>
+    <t>12/07/2017</t>
+  </si>
+  <si>
+    <t>Very nice.  Very modern.</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this Hotel.  It sits off the busy road so it is a lot quieter than many other hotels that I find myself in on my many travels.  Also, FYI....if you choose an odd number room it's even quieter.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this Hotel.  It sits off the busy road so it is a lot quieter than many other hotels that I find myself in on my many travels.  Also, FYI....if you choose an odd number room it's even quieter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r544151690-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>544151690</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t>Baytown Texas HGI, Was soo amazing, 10 stars for me....   I can promise you that this is a great place to stay and staff are soo friendly and have a very infectious smile and laugh that you will forget that your having a bad day...   Kuddos to the staff there at HGI Suites in Baytown Texas....MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Baytown Texas HGI, Was soo amazing, 10 stars for me....   I can promise you that this is a great place to stay and staff are soo friendly and have a very infectious smile and laugh that you will forget that your having a bad day...   Kuddos to the staff there at HGI Suites in Baytown Texas....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r537531018-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>537531018</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Hilton Garden Inn for 2 nights while traveling for business.  The hotel had all of the necessary amenities.  I never know what to expect when I arrive at a hotel, but I was happy to see that it was contemporary, and very well kept.  The lobby area is bright and welcoming and there is a small store for purchasing items that were forgotten.  I ordered food in the restaurant twice for dinner and the food and the service was great.  I also ate breakfast in the restaurant once.  The breakfast is usually good at the Hilton Garden Inn and this was no exception.  The morning server was not very attentive, but I was in the restaurant so briefly that it did not matter. No complaints with the actual hotel room.  It was clean and comfortable, and the bed was very comfortable.  There were a wide range of television channels and there was actually a guide to assist in selecting channels.  The front desk staff was professional and courteous.  I will definitely stay here again when I need to be in this area of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>I recently stayed at this Hilton Garden Inn for 2 nights while traveling for business.  The hotel had all of the necessary amenities.  I never know what to expect when I arrive at a hotel, but I was happy to see that it was contemporary, and very well kept.  The lobby area is bright and welcoming and there is a small store for purchasing items that were forgotten.  I ordered food in the restaurant twice for dinner and the food and the service was great.  I also ate breakfast in the restaurant once.  The breakfast is usually good at the Hilton Garden Inn and this was no exception.  The morning server was not very attentive, but I was in the restaurant so briefly that it did not matter. No complaints with the actual hotel room.  It was clean and comfortable, and the bed was very comfortable.  There were a wide range of television channels and there was actually a guide to assist in selecting channels.  The front desk staff was professional and courteous.  I will definitely stay here again when I need to be in this area of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r531582971-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>531582971</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>great hotel and staff, bar keeps very friendly, hotel was super clean all the time. area was great...If the hotel can talk to fire station about there sirens (I don't think they need to use them on the street that fire trucks come out of)MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2017</t>
+  </si>
+  <si>
+    <t>great hotel and staff, bar keeps very friendly, hotel was super clean all the time. area was great...If the hotel can talk to fire station about there sirens (I don't think they need to use them on the street that fire trucks come out of)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r530093741-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>530093741</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Hilton Garden (it's not)</t>
+  </si>
+  <si>
+    <t>No continental breakfast. Food is excessively expensive. Took 3-4 days to take care of ants in the room. Bit up multiple nights. TV remote didn't work and the replacement sometimes worked. I've had better stay at a Super 8.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>No continental breakfast. Food is excessively expensive. Took 3-4 days to take care of ants in the room. Bit up multiple nights. TV remote didn't work and the replacement sometimes worked. I've had better stay at a Super 8.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r528197731-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>528197731</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Not ready for business</t>
+  </si>
+  <si>
+    <t>Not only was this hotel poorly finished the bugs are a big issue. I had spiders in the bathroom, roaches in the doorway and fire ants IN MY BED! I also had a $300 pair of sunglasses taken from my room. I checked out a week ago and have heard nothing back from the manger that was supposed to call me that evening. This hotel literally just opened the day before I arrived and I can't believe all the things I went through there. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Not only was this hotel poorly finished the bugs are a big issue. I had spiders in the bathroom, roaches in the doorway and fire ants IN MY BED! I also had a $300 pair of sunglasses taken from my room. I checked out a week ago and have heard nothing back from the manger that was supposed to call me that evening. This hotel literally just opened the day before I arrived and I can't believe all the things I went through there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r527089679-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>527089679</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>New Home away from home</t>
+  </si>
+  <si>
+    <t>New Hotel with a Great location and Extremely Friendly Staff. Rooms were good size and easy access. I found my new place to stay when in Baytown TX and that's the Hilton Garden!!! Great food and friendly bar area to sit relax and watch a game !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>New Hotel with a Great location and Extremely Friendly Staff. Rooms were good size and easy access. I found my new place to stay when in Baytown TX and that's the Hilton Garden!!! Great food and friendly bar area to sit relax and watch a game !!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1342,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1374,2290 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O10" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>164</v>
+      </c>
+      <c r="L16" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>93</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>93</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>181</v>
+      </c>
+      <c r="X18" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s">
+        <v>188</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>189</v>
+      </c>
+      <c r="X19" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" t="s">
+        <v>67</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>166</v>
+      </c>
+      <c r="O21" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>205</v>
+      </c>
+      <c r="X21" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" t="s">
+        <v>211</v>
+      </c>
+      <c r="L22" t="s">
+        <v>212</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>166</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>213</v>
+      </c>
+      <c r="X22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>216</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" t="s">
+        <v>218</v>
+      </c>
+      <c r="K23" t="s">
+        <v>219</v>
+      </c>
+      <c r="L23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>222</v>
+      </c>
+      <c r="X23" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>221</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>221</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>238</v>
+      </c>
+      <c r="X25" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>242</v>
+      </c>
+      <c r="J26" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" t="s">
+        <v>244</v>
+      </c>
+      <c r="L26" t="s">
+        <v>245</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>247</v>
+      </c>
+      <c r="X26" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" t="s">
+        <v>243</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>221</v>
+      </c>
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>247</v>
+      </c>
+      <c r="X27" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>255</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>256</v>
+      </c>
+      <c r="J28" t="s">
+        <v>257</v>
+      </c>
+      <c r="K28" t="s">
+        <v>258</v>
+      </c>
+      <c r="L28" t="s">
+        <v>259</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>261</v>
+      </c>
+      <c r="X28" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>265</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>260</v>
+      </c>
+      <c r="O29" t="s">
+        <v>93</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>269</v>
+      </c>
+      <c r="X29" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>273</v>
+      </c>
+      <c r="J30" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s">
+        <v>276</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>93</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>280</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>281</v>
+      </c>
+      <c r="J31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" t="s">
+        <v>283</v>
+      </c>
+      <c r="L31" t="s">
+        <v>284</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>285</v>
+      </c>
+      <c r="X31" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" t="s">
+        <v>292</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>293</v>
+      </c>
+      <c r="X32" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>296</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" t="s">
+        <v>298</v>
+      </c>
+      <c r="K33" t="s">
+        <v>299</v>
+      </c>
+      <c r="L33" t="s">
+        <v>300</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>293</v>
+      </c>
+      <c r="X33" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>303</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>304</v>
+      </c>
+      <c r="J34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" t="s">
+        <v>306</v>
+      </c>
+      <c r="L34" t="s">
+        <v>307</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>93</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>293</v>
+      </c>
+      <c r="X34" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_290.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_290.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="477">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r610685277-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>12232120</t>
+  </si>
+  <si>
+    <t>610685277</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Service &amp; Cleanliness next to None!</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the whole staff was great! They were very attentive and friendly. Rooms were great; quiet and cozy. I am very happy that I chose this hotel as our company hotel that we use while we are in town doing business. Very satisfied!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This hotel was very clean and the whole staff was great! They were very attentive and friendly. Rooms were great; quiet and cozy. I am very happy that I chose this hotel as our company hotel that we use while we are in town doing business. Very satisfied!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r601089168-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>12232120</t>
-  </si>
-  <si>
     <t>601089168</t>
   </si>
   <si>
@@ -177,15 +207,33 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded 4 days ago</t>
-  </si>
-  <si>
-    <t>Responded 4 days ago</t>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
   </si>
   <si>
     <t>Stayed here the weekend with family and when I say it was magnificent it was..the front desk young lady was dress professional and handled things professionally. The entrance so clean and beautiful..when we opened room door room was so nice and clean ..just beautiful elevators clean..pool clean..everything was clean..housekeeping good job..and I saved the best for last bed was so AWESOME..COMFORTABLE..i slept so good..Thank you Hilton garden inn and thank you to where it starts the manager good jobMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r601641712-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>601641712</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Few hiccups but still great</t>
+  </si>
+  <si>
+    <t>Room was clean and pretty. The hotel employees were very friendly. Check in/out was quick and easy. Fridge did not get cold at all. The tub drain did not close all of the way so the kids were forced to take baths with water constantly running. The bathroom door was a MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was clean and pretty. The hotel employees were very friendly. Check in/out was quick and easy. Fridge did not get cold at all. The tub drain did not close all of the way so the kids were forced to take baths with water constantly running. The bathroom door was a More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r600602732-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -222,15 +270,93 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
   </si>
   <si>
     <t>Staff here is Great, Veronica the front desk lady made us feel at home and like she was so happy to have us there :) Bed was comfortable, location was good and we will definitely stay here again if we are in the areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r590815965-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>590815965</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>Beautiful Rooms!</t>
+  </si>
+  <si>
+    <t>This hotel cares about their clients!  The room was perfectly cleaned. The staff was extremely helpful! The environment at the bar was splendid!  Wish it had a more 'grab and go' breakfast, but all-in-all was a great place to stay!  Would recommend to everyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>This hotel cares about their clients!  The room was perfectly cleaned. The staff was extremely helpful! The environment at the bar was splendid!  Wish it had a more 'grab and go' breakfast, but all-in-all was a great place to stay!  Would recommend to everyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r587159272-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>587159272</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Hotel Stay</t>
+  </si>
+  <si>
+    <t>I luv this hotel..Staff was on point &amp; the food &amp; drinks are great..Keep up the great work..Houston Hunni’z SC will always stay here when we come back to Baytown..I must say the breakfast was the best part..Nice clean &amp; friendly environment MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>I luv this hotel..Staff was on point &amp; the food &amp; drinks are great..Keep up the great work..Houston Hunni’z SC will always stay here when we come back to Baytown..I must say the breakfast was the best part..Nice clean &amp; friendly environment More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r584904187-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>584904187</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>The best hotel along Interstate 10</t>
+  </si>
+  <si>
+    <t>My wife and I took I-10 from coast to coast on our journey and this was the best hotel we stopped at along the way. All of the staff members were friendly and helpful. Our room was big and spacious and clean. We paid a fair price here. The bed was comfortable and the sheets were fresh and clean. The wi-fi was blazing fast. The hotel is easily accessible from I-10 at Exit 792. And there are plenty of stores and restaurants nearby for added convenience. We will definitely stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I took I-10 from coast to coast on our journey and this was the best hotel we stopped at along the way. All of the staff members were friendly and helpful. Our room was big and spacious and clean. We paid a fair price here. The bed was comfortable and the sheets were fresh and clean. The wi-fi was blazing fast. The hotel is easily accessible from I-10 at Exit 792. And there are plenty of stores and restaurants nearby for added convenience. We will definitely stay here again More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r584351061-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -246,15 +372,6 @@
     <t>The rooms were clean, comfortable, and a great value for the price. The staff were helpful, courteous,  and friendly. Finding the entrance was a little difficult,  but that was ok as it took us off the very busy main street.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded June 4, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 4, 2018</t>
-  </si>
-  <si>
     <t>The rooms were clean, comfortable, and a great value for the price. The staff were helpful, courteous,  and friendly. Finding the entrance was a little difficult,  but that was ok as it took us off the very busy main street.More</t>
   </si>
   <si>
@@ -297,9 +414,6 @@
     <t>After a long hot day, check in was quick! Room is clean and nice. Room is quiet and relaxing. Staff was very kind and moved my room to the top floor. Good amenities! Lobby has many food offerings in the market. The restaurant has really good food! I will definitely stay here again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 31, 2018</t>
   </si>
   <si>
@@ -309,6 +423,54 @@
     <t>After a long hot day, check in was quick! Room is clean and nice. Room is quiet and relaxing. Staff was very kind and moved my room to the top floor. Good amenities! Lobby has many food offerings in the market. The restaurant has really good food! I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r582940211-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>582940211</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Great value for the money</t>
+  </si>
+  <si>
+    <t>This brand-new hotel is a great value in Baytown.  The hotel staff are very welcoming and the accommodations are modern and bright.  I plan to stay at this hotel when I return to the area since it is so close to our site.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>This brand-new hotel is a great value in Baytown.  The hotel staff are very welcoming and the accommodations are modern and bright.  I plan to stay at this hotel when I return to the area since it is so close to our site.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r581508014-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>581508014</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>This new hotel is top notch. The staff is friendly and the Manager Reggie is welcoming and always willing to make your stay the best. In the Channelview area, I would highly suggest staying at this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>This new hotel is top notch. The staff is friendly and the Manager Reggie is welcoming and always willing to make your stay the best. In the Channelview area, I would highly suggest staying at this property. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r579099417-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -379,6 +541,54 @@
   </si>
   <si>
     <t>Hotel lobby seems to be clean. The room was quite nice, clean as well. Very disappointed in the fact that it does not come with a complimentary breakfast for the price we paid. We did not use any amenities it came with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r576343032-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>576343032</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>First time at this property and cannot wait till we return!</t>
+  </si>
+  <si>
+    <t>We checked in last night and the minute we walked in the lady checking us in, Veronica, had a huge smile on her face.   Very upbeat and friendly. We had a king room on the fourth floor and it was very modern and clean. Being a Hilton honors diamond member we are offered a complementary breakfast which we ate this morning. They served us the biggest omelet  I’ve ever seen in my life and they were so good as well as the delicious fresh French toast ..And bacon was excellent and so was the coffee. Judy was our server today and she was very sweet. I highly recommend this property if you’re in the Baytown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>We checked in last night and the minute we walked in the lady checking us in, Veronica, had a huge smile on her face.   Very upbeat and friendly. We had a king room on the fourth floor and it was very modern and clean. Being a Hilton honors diamond member we are offered a complementary breakfast which we ate this morning. They served us the biggest omelet  I’ve ever seen in my life and they were so good as well as the delicious fresh French toast ..And bacon was excellent and so was the coffee. Judy was our server today and she was very sweet. I highly recommend this property if you’re in the Baytown area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r575288611-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>575288611</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>A Night Away From Home</t>
+  </si>
+  <si>
+    <t>We were looking for a night away from home to celebrate our 26th wedding anniversary and chose to stay here. The room was very impressive with the quality materials used and efficienct layout. We had a pleasant,comfortable stay,it made us feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>We were looking for a night away from home to celebrate our 26th wedding anniversary and chose to stay here. The room was very impressive with the quality materials used and efficienct layout. We had a pleasant,comfortable stay,it made us feel at home.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r572308575-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
@@ -456,15 +666,63 @@
 I had the opportunity to stay at this location and must say that it surpassed all expectations by leaps and bounds. Anytime I returned to the property, I would always be eagerly greeted by Reggie or one of his many gracious team members (Kelly, Veronica, Carolina, and Jim) and those amazing fresh baked cookies. Sometimes if they ran out before I returned from a late day, they would bake another batch just so I could enjoy a few. The hospitality doesn’t stop there, but extends exponentially in all directions. Regardless if it was coming down for breakfast, dinner, or a drink at the grill; Vivian, Dorothy, Sarah, Destiny, and Allan would all enthusiastically welcome me back by name and with many smiles. Vivian and Destiny each would remember what I ordered the previous interaction and without missing a beat, ask if that was something I wanted to try again. Dorothy and Sarah would always prepare fantastic meals even with my special requests due to dietary restrictions. If i wanted to sit outside in the patio by the fire place, Allan would happily ignite it and kindly set up a chair close by so as I can be left to enjoy my evening libation. I’ve stayed at many hotels  and must say indubitably that Reggie and his excellent team have made my stay one of the most enjoyable and everlasting memorable moments with not only their professionalism, but with their goal of making you feel like you are at home. Bravo, you all did!They truly are a paragon of what the real hotel experience should be - feeling like you aren’t at one at all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r569971475-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>569971475</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>My Home Away From Home</t>
+  </si>
+  <si>
+    <t>The Hilton Garden Inn in Baytown has surpassed any and all expectations. Reggie  and his team (Alan, Dorthy, Vivian, Sarah, Kelly, Catalina, Jim, And Veronica) have been extraordinary hosts. Being in Baytown on business for 60 nights has been an absolute pleasure thanks to them. Any day or night at the front desk Reggie, Kelly, Catalina, Jim, or Veronica will greet you with a friendly smile and always enthusiastic to help anyway possible. Alan was available anytime we needed his assistance, even at times he wasn’t on the clock. He was still willing to lend a helping hand. Vivian, Dorthy, and Sarah are second to none when dining at the Garden Grille &amp; Bar. Incredible service and attention to detail is what separates them from all other hotel restaurants and bars. I would like to thank each and everyone of you for treating me and my coworkers like family. I highly recommend staying at the Hilton Garden Inn in Baytown, an experience you will never forget.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded April 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2018</t>
+  </si>
+  <si>
+    <t>The Hilton Garden Inn in Baytown has surpassed any and all expectations. Reggie  and his team (Alan, Dorthy, Vivian, Sarah, Kelly, Catalina, Jim, And Veronica) have been extraordinary hosts. Being in Baytown on business for 60 nights has been an absolute pleasure thanks to them. Any day or night at the front desk Reggie, Kelly, Catalina, Jim, or Veronica will greet you with a friendly smile and always enthusiastic to help anyway possible. Alan was available anytime we needed his assistance, even at times he wasn’t on the clock. He was still willing to lend a helping hand. Vivian, Dorthy, and Sarah are second to none when dining at the Garden Grille &amp; Bar. Incredible service and attention to detail is what separates them from all other hotel restaurants and bars. I would like to thank each and everyone of you for treating me and my coworkers like family. I highly recommend staying at the Hilton Garden Inn in Baytown, an experience you will never forget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r568881430-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>568881430</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location (near a neighborhood, so light traffic; also very close to plenty of dining establishments and shopping). The staff was excellent and the room was very nice. The entire hotel had a very clean, modern, welcoming feel to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location (near a neighborhood, so light traffic; also very close to plenty of dining establishments and shopping). The staff was excellent and the room was very nice. The entire hotel had a very clean, modern, welcoming feel to it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r568870781-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
     <t>568870781</t>
   </si>
   <si>
-    <t>03/26/2018</t>
-  </si>
-  <si>
     <t>The perfect stay!</t>
   </si>
   <si>
@@ -474,12 +732,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 27, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 27, 2018</t>
-  </si>
-  <si>
     <t>I have been in this hotel for over 50 days on business, the staff has made us feel like part of the family. There is always a friendly greeting and welcomed conversation no matter what time of day. The food and the bar are extremely accommodating. The rooms are very comfortable and always very clean.My whole experience has been tremendously satisfying while away from home.Thanks to the entire staff; Reggie, Jim, Alan, Vivian, Dorothy (always get to know the chef) and the rest, to many to name.More</t>
   </si>
   <si>
@@ -498,9 +750,6 @@
     <t>There seem to be many brand new hotels in the area, and this is one of them.  The lobby area and bedroom were very modern and well decorated.  The ladies at the front desk &amp; restaurant/bar area were very outgoing and friendly.  Two complaints that I would get fixed next time (we only stayed 1 night) -- pillows were way to big/firm and the window AC unit was too noisy to sleep through. Some Hilton Garden Inn hotels provide free breakfast, this one does not -- so factor that into the cost if you plan to eat breakfast at the hotel.Other than that, it was a great experience.MoreShow less</t>
   </si>
   <si>
-    <t>March 2018</t>
-  </si>
-  <si>
     <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 19, 2018</t>
   </si>
   <si>
@@ -528,6 +777,45 @@
     <t>In stayed in the Hilton Garden Inn in The  Woodlands and found very good. My work involves travelling around a lot. When i came to Baytown for my company i tried several hotels before the Hilton Garden Inn but they were fully booked. I decided to stay initially for 1 week and move to another hotel but the people at the hotel were very professional and friendly i decided to extend my stay. The rooms are kept very clean and they are spacious. At  the front desk the staff  are  always very polite and helpful.  Breakfast is a buffet style and is very good even the meals in the evening are good value for the price and the staff are very friendly. There is a bar in the hotel which after a long day at work is nice to come back to. The bar staff are very good they remember you and the type of drink you prefer. There are bar snacks available as well as the full menu. In general i would say this is one of the best hotels from around the world i have stayed in. My compliments to the management staff and all the staff for making my stay here very good. Come and see for yourselves.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r565184324-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>565184324</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>Staff was absolutely amazing! Dorothy, Kelly, Veronica, Megan, Kaleigh, Sarah. Was incredible. I stayed for a work trip and was amazed at the staff. I would recommend this place to anyone who is looking to stay in the Baytown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2018</t>
+  </si>
+  <si>
+    <t>Staff was absolutely amazing! Dorothy, Kelly, Veronica, Megan, Kaleigh, Sarah. Was incredible. I stayed for a work trip and was amazed at the staff. I would recommend this place to anyone who is looking to stay in the Baytown area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r565177495-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>565177495</t>
+  </si>
+  <si>
+    <t>Great Property</t>
+  </si>
+  <si>
+    <t>Great and excellent service from all staff members.  Needed job related assistance at 0300-hrs this morning, and the staff helped me tremendously.   Beginning with my first visit, I have been welcomed with open arms.  Excellent breakfast and evening bar and eats at very affordable price.  My first stop when working in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great and excellent service from all staff members.  Needed job related assistance at 0300-hrs this morning, and the staff helped me tremendously.   Beginning with my first visit, I have been welcomed with open arms.  Excellent breakfast and evening bar and eats at very affordable price.  My first stop when working in the Houston area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r564985351-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -600,6 +888,54 @@
     <t>The entire hotel was very clean, rooms, facility, all of the grounds were nice.  The bed and room were very comfortable, the fitness center was very well set up.  I will return when I’m in the area.  Thanks!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r557639557-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>557639557</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We had a great stay.  The food was good and the hotel was very very clean.  I will definitely stay here again, We got our moneys worth.  The staff was very friendly and helpful.  I used the laundry also.Great, great, greatMoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>We had a great stay.  The food was good and the hotel was very very clean.  I will definitely stay here again, We got our moneys worth.  The staff was very friendly and helpful.  I used the laundry also.Great, great, greatMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r556572653-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>556572653</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Good hotel but heater didn't work in room</t>
+  </si>
+  <si>
+    <t>The staff was nice but they gave us double beds instead of the king sized bed we booked which did not make me happy. We booked using our Military discount and they took that away and charged full price after taking away the king sized bed then refused to allow the discount as well.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>The staff was nice but they gave us double beds instead of the king sized bed we booked which did not make me happy. We booked using our Military discount and they took that away and charged full price after taking away the king sized bed then refused to allow the discount as well.   More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r556132814-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -615,12 +951,6 @@
     <t>The roads and bridges to Galveston and Houston were closed due to a terrible ice storm.  We got the last room in the hotel and needed to stay two nights before we could continue to Austin.  They have a restaurant with a small but good dinner menu and a bar in the lobby, so we didn't have to leave the hotel till we left.  The breakfast was a sit down menu style breakfast and quite good.  The waitresses were excellent and friendly.  The rooms were quiet and clean.  Just what we needed.MoreShow less</t>
   </si>
   <si>
-    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 29, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 29, 2018</t>
-  </si>
-  <si>
     <t>The roads and bridges to Galveston and Houston were closed due to a terrible ice storm.  We got the last room in the hotel and needed to stay two nights before we could continue to Austin.  They have a restaurant with a small but good dinner menu and a bar in the lobby, so we didn't have to leave the hotel till we left.  The breakfast was a sit down menu style breakfast and quite good.  The waitresses were excellent and friendly.  The rooms were quiet and clean.  Just what we needed.More</t>
   </si>
   <si>
@@ -672,6 +1002,57 @@
     <t>Staffed by thieves and liars, made up claims against clients, multiple hidden charges, and if you question or complain, ignored, we’ve stayed in our last Hilton over this, and will let everyone we know to avoid them, nothing but thieves and liarsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r551074591-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>551074591</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>Phenomenal Experience!</t>
+  </si>
+  <si>
+    <t>This hotel and its staff are absolutely amazing! From the clean modern rooms, to the genuinely nice people, this hotel is top notch! The customer service exceeds all expectations. So refreshing to have an awesome experience such as this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2018</t>
+  </si>
+  <si>
+    <t>This hotel and its staff are absolutely amazing! From the clean modern rooms, to the genuinely nice people, this hotel is top notch! The customer service exceeds all expectations. So refreshing to have an awesome experience such as this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r550516196-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>550516196</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Wonderful place</t>
+  </si>
+  <si>
+    <t>Everything was lovely . The person check me in was very friendly and nice.  Make sure my stay was good. Make sure I had what I need. The person who greet me with a smile and that make a different. Make feel welcimeMoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Everything was lovely . The person check me in was very friendly and nice.  Make sure my stay was good. Make sure I had what I need. The person who greet me with a smile and that make a different. Make feel welcimeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r548224793-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -687,9 +1068,6 @@
     <t>Brand spanking new, delightful staff, modern, high quality construction, decent beds. No free breakfast, but in house restaurant with quality fair. Free hot coffee that is good (and I am picky) with half and half. We will return to this place. We have stayed at two other properties of decent brand and they do not come close. Paid a bit more, but I am worth it.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 22, 2017</t>
   </si>
   <si>
@@ -747,6 +1125,63 @@
     <t>Incredible rooms.  Kuerig , fridge, microwave!   The bed and pillows were very comfortable.  Check in was easy and fast.  The laptop table was very nice. Very easy access on the internet. The bathroom was very clean More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r547221083-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>547221083</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>they dropped the ball on this visit</t>
+  </si>
+  <si>
+    <t>This Hilton Garden Inn is newly designed with excellent shelving and large full mirror - nice touch. Check-in was smooth and I thought I was in store for an excellent 2-night, 2-day stay. After the first night things went downhill.
+The first morning, I went downstairs at 6:05am and found no one there - they publicize that they start breakfasts at 6am. After waiting 5 minutes a person comes out from back and suggests that I place my omelette order by circling what ingredients I wanted in my omelette on the small pre-printed form that was available. I did so and continued eating some fruit, yogurt, etc while waiting for my omelette. After about 10 minutes my omelette arrived - wrongly made! I had not circled onions nor cheese and the omelette I received was filled with both. So, waited for another 7 minutes to finally receive my correct omelette at 6:25am. 
+I left the hotel at 7am to attend to business meetings in the area. I did not return until 9pm that evening - to my surprise to find that my room had NOT been serviced by Housekeeping whatsover! The bed was exactly as I left it, my used towels still on the floor, and my take-out cheesecake container still sitting on the garbage can. This is the first Hilton Garden Inn I have ever experienced (I'm a frequent business traveler) where Housekeeping TOTALLY neglected servicing my room. 
+When...This Hilton Garden Inn is newly designed with excellent shelving and large full mirror - nice touch. Check-in was smooth and I thought I was in store for an excellent 2-night, 2-day stay. After the first night things went downhill.The first morning, I went downstairs at 6:05am and found no one there - they publicize that they start breakfasts at 6am. After waiting 5 minutes a person comes out from back and suggests that I place my omelette order by circling what ingredients I wanted in my omelette on the small pre-printed form that was available. I did so and continued eating some fruit, yogurt, etc while waiting for my omelette. After about 10 minutes my omelette arrived - wrongly made! I had not circled onions nor cheese and the omelette I received was filled with both. So, waited for another 7 minutes to finally receive my correct omelette at 6:25am. I left the hotel at 7am to attend to business meetings in the area. I did not return until 9pm that evening - to my surprise to find that my room had NOT been serviced by Housekeeping whatsover! The bed was exactly as I left it, my used towels still on the floor, and my take-out cheesecake container still sitting on the garbage can. This is the first Hilton Garden Inn I have ever experienced (I'm a frequent business traveler) where Housekeeping TOTALLY neglected servicing my room. When discussing this with their front desk management, they stated 'maybe you left the Do Not Disturb sign at your door'! So they now attempted to assign the blame on to the guest for their dropping the ball!That evening I went down to their Business Center to print my boarding passes for the next day's flight back home. Both computers were inoperative - the front desk person was not able to get them to work either, and she had to print my boarding passes for me from her front desk computer/printer. This was a bad experience at this hotel. There were initial communications with the management at this hotel, but then they also became unresponsive; had to go to Hilton Guest Assistance to obtain satisfaction - prolonged resolution.Hoping this is an isolated incident, but sharing so that you may be aware; there are too many other hotel options right around this venue that they need to be more appreciative of customers choosing to stay at their location.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>This Hilton Garden Inn is newly designed with excellent shelving and large full mirror - nice touch. Check-in was smooth and I thought I was in store for an excellent 2-night, 2-day stay. After the first night things went downhill.
+The first morning, I went downstairs at 6:05am and found no one there - they publicize that they start breakfasts at 6am. After waiting 5 minutes a person comes out from back and suggests that I place my omelette order by circling what ingredients I wanted in my omelette on the small pre-printed form that was available. I did so and continued eating some fruit, yogurt, etc while waiting for my omelette. After about 10 minutes my omelette arrived - wrongly made! I had not circled onions nor cheese and the omelette I received was filled with both. So, waited for another 7 minutes to finally receive my correct omelette at 6:25am. 
+I left the hotel at 7am to attend to business meetings in the area. I did not return until 9pm that evening - to my surprise to find that my room had NOT been serviced by Housekeeping whatsover! The bed was exactly as I left it, my used towels still on the floor, and my take-out cheesecake container still sitting on the garbage can. This is the first Hilton Garden Inn I have ever experienced (I'm a frequent business traveler) where Housekeeping TOTALLY neglected servicing my room. 
+When...This Hilton Garden Inn is newly designed with excellent shelving and large full mirror - nice touch. Check-in was smooth and I thought I was in store for an excellent 2-night, 2-day stay. After the first night things went downhill.The first morning, I went downstairs at 6:05am and found no one there - they publicize that they start breakfasts at 6am. After waiting 5 minutes a person comes out from back and suggests that I place my omelette order by circling what ingredients I wanted in my omelette on the small pre-printed form that was available. I did so and continued eating some fruit, yogurt, etc while waiting for my omelette. After about 10 minutes my omelette arrived - wrongly made! I had not circled onions nor cheese and the omelette I received was filled with both. So, waited for another 7 minutes to finally receive my correct omelette at 6:25am. I left the hotel at 7am to attend to business meetings in the area. I did not return until 9pm that evening - to my surprise to find that my room had NOT been serviced by Housekeeping whatsover! The bed was exactly as I left it, my used towels still on the floor, and my take-out cheesecake container still sitting on the garbage can. This is the first Hilton Garden Inn I have ever experienced (I'm a frequent business traveler) where Housekeeping TOTALLY neglected servicing my room. When discussing this with their front desk management, they stated 'maybe you left the Do Not Disturb sign at your door'! So they now attempted to assign the blame on to the guest for their dropping the ball!That evening I went down to their Business Center to print my boarding passes for the next day's flight back home. Both computers were inoperative - the front desk person was not able to get them to work either, and she had to print my boarding passes for me from her front desk computer/printer. This was a bad experience at this hotel. There were initial communications with the management at this hotel, but then they also became unresponsive; had to go to Hilton Guest Assistance to obtain satisfaction - prolonged resolution.Hoping this is an isolated incident, but sharing so that you may be aware; there are too many other hotel options right around this venue that they need to be more appreciative of customers choosing to stay at their location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r546931112-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>546931112</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>a very enjoyable stay</t>
+  </si>
+  <si>
+    <t>i enjoyed my time at this hotel very much. the decor of the hotel was very nice. the room and bathroom were very clean. the bed was very comfortable. i liked the accommodations i received. the exterior of the hotel was very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>i enjoyed my time at this hotel very much. the decor of the hotel was very nice. the room and bathroom were very clean. the bed was very comfortable. i liked the accommodations i received. the exterior of the hotel was very clean.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r546306194-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -816,6 +1251,45 @@
     <t>I really enjoyed my stay at this Hotel.  It sits off the busy road so it is a lot quieter than many other hotels that I find myself in on my many travels.  Also, FYI....if you choose an odd number room it's even quieter.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r545768642-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>545768642</t>
+  </si>
+  <si>
+    <t>Travelers, this new Hilton Garden Inn is really nice!</t>
+  </si>
+  <si>
+    <t>Travelers, this new Hilton Garden Inn is really nice! Again, this hotel is Brand New and up to date! The staff was very helpful and professional. The room was great and the bed was good with great pillows. And the Wi Fi is outstanding!MoreShow less</t>
+  </si>
+  <si>
+    <t>Travelers, this new Hilton Garden Inn is really nice! Again, this hotel is Brand New and up to date! The staff was very helpful and professional. The room was great and the bed was good with great pillows. And the Wi Fi is outstanding!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r544936731-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>544936731</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>$18.00 for a pint of beer</t>
+  </si>
+  <si>
+    <t>$18.00 for a pint of beer! This was enough to turn me off of Hilton Garden Inn for good. This is just an out of control price, even for a hotel bar. The staff was very nice, the rooms were ok, but the elevator was the worst elevator I've ever been in. It was incredibly noisy with a terribly recorded chime for each level it passed. It was so loud! When I would ride in the elevator with other people I could see them jump at the sound of this obscenely loud elevator chime.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, General Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>$18.00 for a pint of beer! This was enough to turn me off of Hilton Garden Inn for good. This is just an out of control price, even for a hotel bar. The staff was very nice, the rooms were ok, but the elevator was the worst elevator I've ever been in. It was incredibly noisy with a terribly recorded chime for each level it passed. It was so loud! When I would ride in the elevator with other people I could see them jump at the sound of this obscenely loud elevator chime.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r544151690-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -886,6 +1360,42 @@
   </si>
   <si>
     <t>great hotel and staff, bar keeps very friendly, hotel was super clean all the time. area was great...If the hotel can talk to fire station about there sirens (I don't think they need to use them on the street that fire trucks come out of)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r531240129-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>531240129</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Military Family </t>
+  </si>
+  <si>
+    <t>No Texas State Tax Exempt Forms at front desk!  Charged taxes even when presenting the form to the front.   Wouldn’t recommend this hotel to anyone who serve our country.  No change machine for laundry.  Couldn’t swipe with credit card wasn’t operable.  No laundry detergent for sale.  They make a lot excuses.  WHICH MEANS, They don’t care!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Gaylynn N, Manager at Hilton Garden Inn Houston- Baytown, responded to this reviewResponded October 10, 2017</t>
+  </si>
+  <si>
+    <t>No Texas State Tax Exempt Forms at front desk!  Charged taxes even when presenting the form to the front.   Wouldn’t recommend this hotel to anyone who serve our country.  No change machine for laundry.  Couldn’t swipe with credit card wasn’t operable.  No laundry detergent for sale.  They make a lot excuses.  WHICH MEANS, They don’t care!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r531200901-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>531200901</t>
+  </si>
+  <si>
+    <t>Modern and Stylish</t>
+  </si>
+  <si>
+    <t>The room was very chic and clean. It came with a wide selection of tv channels and electric blackout shades. I only found two drawbacks. 1. The water in both the bath and the sink never got hot. It remained a little hotter than luke warm. 2. The sheets were very scratchy. But I believe this is a new hotel, so the sheets should soften over time.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was very chic and clean. It came with a wide selection of tv channels and electric blackout shades. I only found two drawbacks. 1. The water in both the bath and the sink never got hot. It remained a little hotter than luke warm. 2. The sheets were very scratchy. But I believe this is a new hotel, so the sheets should soften over time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12232120-r530093741-Hilton_Garden_Inn_Houston_Baytown-Baytown_Texas.html</t>
@@ -1491,12 +2001,22 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1547,10 +2067,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1562,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1584,7 +2104,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1593,37 +2113,37 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
@@ -1633,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1655,7 +2175,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1664,53 +2184,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y5" t="s">
         <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6">
@@ -1726,7 +2236,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1735,37 +2245,37 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>76</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1775,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
         <v>85</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -1797,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1806,43 +2316,53 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
         <v>94</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>95</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1858,7 +2378,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1867,31 +2387,35 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
@@ -1903,13 +2427,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>103</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9">
@@ -1925,7 +2449,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1934,10 +2458,10 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
         <v>106</v>
-      </c>
-      <c r="J9" t="s">
-        <v>99</v>
       </c>
       <c r="K9" t="s">
         <v>107</v>
@@ -1949,34 +2473,28 @@
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
@@ -1992,7 +2510,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2001,53 +2519,53 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y10" t="s">
         <v>118</v>
-      </c>
-      <c r="X10" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -2063,7 +2581,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2072,43 +2590,53 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
         <v>122</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>123</v>
       </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" t="s">
-        <v>125</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O11" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y11" t="s">
         <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -2124,7 +2652,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2133,22 +2661,22 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s">
         <v>130</v>
       </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>131</v>
       </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
         <v>52</v>
@@ -2163,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>132</v>
+      </c>
+      <c r="X12" t="s">
         <v>133</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>134</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13">
@@ -2185,7 +2713,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2194,39 +2722,49 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J13" t="s">
         <v>137</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>138</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>139</v>
       </c>
-      <c r="L13" t="s">
-        <v>140</v>
-      </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="N13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
         <v>141</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>142</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14">
@@ -2242,7 +2780,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2251,29 +2789,35 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
         <v>145</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>146</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>147</v>
       </c>
-      <c r="L14" t="s">
-        <v>148</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="n">
         <v>5</v>
       </c>
@@ -2285,13 +2829,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
         <v>150</v>
-      </c>
-      <c r="X14" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -2307,7 +2851,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2316,25 +2860,25 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>155</v>
       </c>
-      <c r="K15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>157</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2352,13 +2896,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
@@ -2374,7 +2918,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2383,45 +2927,49 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
-        <v>166</v>
-      </c>
-      <c r="O16" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="X16" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17">
@@ -2437,7 +2985,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2446,43 +2994,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
         <v>169</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>170</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>171</v>
       </c>
-      <c r="L17" t="s">
-        <v>172</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
-      </c>
       <c r="O17" t="s">
-        <v>93</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>83</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
         <v>173</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>174</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18">
@@ -2498,7 +3056,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2507,25 +3065,25 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
         <v>177</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>178</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>179</v>
       </c>
-      <c r="L18" t="s">
-        <v>180</v>
-      </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2537,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
         <v>181</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>182</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="19">
@@ -2559,7 +3117,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2568,25 +3126,25 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
         <v>185</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>186</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>187</v>
       </c>
-      <c r="L19" t="s">
-        <v>188</v>
-      </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2608,13 +3166,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
         <v>189</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>190</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="20">
@@ -2630,7 +3188,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2639,47 +3197,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
         <v>193</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>194</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>195</v>
       </c>
-      <c r="L20" t="s">
-        <v>196</v>
-      </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
+        <v>196</v>
+      </c>
+      <c r="X20" t="s">
         <v>197</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>198</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="21">
@@ -2695,7 +3249,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2704,53 +3258,43 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
+        <v>200</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
         <v>201</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>202</v>
       </c>
-      <c r="K21" t="s">
-        <v>203</v>
-      </c>
-      <c r="L21" t="s">
-        <v>204</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
+        <v>203</v>
+      </c>
+      <c r="X21" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y21" t="s">
         <v>205</v>
-      </c>
-      <c r="X21" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="22">
@@ -2766,7 +3310,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2775,53 +3319,39 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K22" t="s">
         <v>209</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>210</v>
       </c>
-      <c r="K22" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" t="s">
-        <v>212</v>
-      </c>
       <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>166</v>
-      </c>
-      <c r="O22" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s">
         <v>213</v>
-      </c>
-      <c r="X22" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23">
@@ -2837,7 +3367,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2846,22 +3376,22 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s">
         <v>217</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>218</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>219</v>
-      </c>
-      <c r="L23" t="s">
-        <v>220</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>221</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
@@ -2876,13 +3406,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
+        <v>220</v>
+      </c>
+      <c r="X23" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" t="s">
         <v>222</v>
-      </c>
-      <c r="X23" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="24">
@@ -2898,7 +3428,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2907,22 +3437,22 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" t="s">
         <v>226</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>227</v>
       </c>
-      <c r="K24" t="s">
-        <v>228</v>
-      </c>
-      <c r="L24" t="s">
-        <v>229</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
         <v>52</v>
@@ -2947,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
+        <v>228</v>
+      </c>
+      <c r="X24" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y24" t="s">
         <v>230</v>
-      </c>
-      <c r="X24" t="s">
-        <v>231</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -2969,7 +3499,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2978,35 +3508,29 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
         <v>234</v>
       </c>
-      <c r="J25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>235</v>
       </c>
-      <c r="K25" t="s">
-        <v>236</v>
-      </c>
-      <c r="L25" t="s">
-        <v>237</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>221</v>
-      </c>
       <c r="O25" t="s">
-        <v>67</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>5</v>
       </c>
@@ -3018,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -3040,7 +3564,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3049,35 +3573,31 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
         <v>5</v>
       </c>
@@ -3089,13 +3609,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="X26" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Y26" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27">
@@ -3111,7 +3631,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3120,53 +3640,45 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
@@ -3182,7 +3694,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3191,53 +3703,43 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
-        <v>93</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="X28" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29">
@@ -3253,7 +3755,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3262,25 +3764,25 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3288,12 +3790,8 @@
       <c r="Q29" t="n">
         <v>5</v>
       </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3302,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="X29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="Y29" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
@@ -3324,7 +3822,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3333,47 +3831,43 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>93</v>
-      </c>
-      <c r="P30" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>4</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -3389,7 +3883,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3398,53 +3892,43 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="X31" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32">
@@ -3460,7 +3944,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3469,53 +3953,53 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="X32" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
@@ -3531,7 +4015,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3540,41 +4024,41 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K33" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3586,7 +4070,7 @@
         <v>294</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34">
@@ -3602,7 +4086,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3611,53 +4095,1638 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
         <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>249</v>
+      </c>
+      <c r="O35" t="s">
+        <v>83</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>315</v>
+      </c>
+      <c r="X36" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>318</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>319</v>
+      </c>
+      <c r="J37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L37" t="s">
+        <v>322</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>323</v>
+      </c>
+      <c r="X37" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>327</v>
+      </c>
+      <c r="J38" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" t="s">
+        <v>329</v>
+      </c>
+      <c r="L38" t="s">
+        <v>330</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>62</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>332</v>
+      </c>
+      <c r="X38" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J39" t="s">
+        <v>337</v>
+      </c>
+      <c r="K39" t="s">
+        <v>338</v>
+      </c>
+      <c r="L39" t="s">
+        <v>339</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>331</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>340</v>
+      </c>
+      <c r="X39" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>343</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>344</v>
+      </c>
+      <c r="J40" t="s">
+        <v>345</v>
+      </c>
+      <c r="K40" t="s">
+        <v>346</v>
+      </c>
+      <c r="L40" t="s">
+        <v>347</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>331</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>348</v>
+      </c>
+      <c r="X40" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>351</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>352</v>
+      </c>
+      <c r="J41" t="s">
+        <v>353</v>
+      </c>
+      <c r="K41" t="s">
+        <v>354</v>
+      </c>
+      <c r="L41" t="s">
+        <v>355</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>356</v>
+      </c>
+      <c r="X41" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>360</v>
+      </c>
+      <c r="J42" t="s">
+        <v>361</v>
+      </c>
+      <c r="K42" t="s">
+        <v>362</v>
+      </c>
+      <c r="L42" t="s">
+        <v>363</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>331</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>364</v>
+      </c>
+      <c r="X42" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>368</v>
+      </c>
+      <c r="J43" t="s">
+        <v>369</v>
+      </c>
+      <c r="K43" t="s">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s">
+        <v>371</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>331</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>372</v>
+      </c>
+      <c r="X43" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>376</v>
+      </c>
+      <c r="J44" t="s">
+        <v>377</v>
+      </c>
+      <c r="K44" t="s">
+        <v>378</v>
+      </c>
+      <c r="L44" t="s">
+        <v>379</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>380</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>381</v>
+      </c>
+      <c r="X44" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>384</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>385</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>387</v>
+      </c>
+      <c r="L45" t="s">
+        <v>388</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>389</v>
+      </c>
+      <c r="O45" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>390</v>
+      </c>
+      <c r="X45" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>393</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>394</v>
+      </c>
+      <c r="J46" t="s">
+        <v>386</v>
+      </c>
+      <c r="K46" t="s">
+        <v>395</v>
+      </c>
+      <c r="L46" t="s">
+        <v>396</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>390</v>
+      </c>
+      <c r="X46" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>398</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>399</v>
+      </c>
+      <c r="J47" t="s">
+        <v>400</v>
+      </c>
+      <c r="K47" t="s">
+        <v>401</v>
+      </c>
+      <c r="L47" t="s">
+        <v>402</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>403</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>404</v>
+      </c>
+      <c r="X47" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>408</v>
+      </c>
+      <c r="J48" t="s">
+        <v>400</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>331</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>404</v>
+      </c>
+      <c r="X48" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s">
+        <v>415</v>
+      </c>
+      <c r="L49" t="s">
+        <v>416</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>403</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>417</v>
+      </c>
+      <c r="X49" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>420</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50" t="s">
+        <v>422</v>
+      </c>
+      <c r="K50" t="s">
+        <v>423</v>
+      </c>
+      <c r="L50" t="s">
+        <v>424</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>425</v>
+      </c>
+      <c r="X50" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>428</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>429</v>
+      </c>
+      <c r="J51" t="s">
+        <v>430</v>
+      </c>
+      <c r="K51" t="s">
+        <v>431</v>
+      </c>
+      <c r="L51" t="s">
+        <v>432</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>389</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>433</v>
+      </c>
+      <c r="X51" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>437</v>
+      </c>
+      <c r="J52" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" t="s">
+        <v>439</v>
+      </c>
+      <c r="L52" t="s">
+        <v>440</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>389</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>441</v>
+      </c>
+      <c r="X52" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>445</v>
+      </c>
+      <c r="J53" t="s">
+        <v>446</v>
+      </c>
+      <c r="K53" t="s">
+        <v>447</v>
+      </c>
+      <c r="L53" t="s">
+        <v>448</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>389</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>449</v>
+      </c>
+      <c r="X53" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>451</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>452</v>
+      </c>
+      <c r="J54" t="s">
+        <v>446</v>
+      </c>
+      <c r="K54" t="s">
+        <v>453</v>
+      </c>
+      <c r="L54" t="s">
+        <v>454</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>389</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>449</v>
+      </c>
+      <c r="X54" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>456</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>457</v>
+      </c>
+      <c r="J55" t="s">
+        <v>458</v>
+      </c>
+      <c r="K55" t="s">
+        <v>459</v>
+      </c>
+      <c r="L55" t="s">
+        <v>460</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>389</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>461</v>
+      </c>
+      <c r="X55" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>465</v>
+      </c>
+      <c r="J56" t="s">
+        <v>466</v>
+      </c>
+      <c r="K56" t="s">
+        <v>467</v>
+      </c>
+      <c r="L56" t="s">
+        <v>468</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>469</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>461</v>
+      </c>
+      <c r="X56" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>66142</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>471</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>472</v>
+      </c>
+      <c r="J57" t="s">
+        <v>473</v>
+      </c>
+      <c r="K57" t="s">
+        <v>474</v>
+      </c>
+      <c r="L57" t="s">
+        <v>475</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>469</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>461</v>
+      </c>
+      <c r="X57" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
